--- a/7RMartSuperMarketProject/src/test/resources/TestData.xlsx
+++ b/7RMartSuperMarketProject/src/test/resources/TestData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajis\eclipse-workspace\7RMartSuperMarketProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajis\git\AutomationRepo\7RMartSuperMarketProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725AAE73-028B-46A9-A4EB-0573FC10ED1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AB71BD-18C7-4E87-9657-C0B07FE9DEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUserPage" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageCategoryPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
   <si>
     <t>admin</t>
   </si>
@@ -36,15 +37,29 @@
   <si>
     <t>Ann.Mary</t>
   </si>
+  <si>
+    <t>123@456</t>
+  </si>
+  <si>
+    <t>Cooking Essentials</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,13 +82,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,17 +417,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E19845-F6B1-4D61-9FCE-081F3BAB82D1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{832EDB93-6521-4373-86D9-2ADD5658E7D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5DCB58-BF14-4301-A620-CD9CB85F82F7}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/7RMartSuperMarketProject/src/test/resources/TestData.xlsx
+++ b/7RMartSuperMarketProject/src/test/resources/TestData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajis\git\AutomationRepo\7RMartSuperMarketProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AB71BD-18C7-4E87-9657-C0B07FE9DEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD10E40D-867C-431E-B5A6-D1EE467BBC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUserPage" sheetId="2" r:id="rId2"/>
     <sheet name="ManageCategoryPage" sheetId="3" r:id="rId3"/>
+    <sheet name="AddNewsPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
   <si>
     <t>admin</t>
   </si>
@@ -42,6 +43,9 @@
   </si>
   <si>
     <t>Cooking Essentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covid cases are increasing in Kerala </t>
   </si>
 </sst>
 </file>
@@ -447,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5DCB58-BF14-4301-A620-CD9CB85F82F7}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,4 +493,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCC884A-4BE8-4478-BA18-FF1905E9E7A8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>